--- a/REGULAR/CTO/BAYOT ANABEL D..xlsx
+++ b/REGULAR/CTO/BAYOT ANABEL D..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="433">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1336,6 +1336,12 @@
   </si>
   <si>
     <t>8/29- 9/1/2023</t>
+  </si>
+  <si>
+    <t>10/20,23,24,25/2023</t>
+  </si>
+  <si>
+    <t>12/21,22,29/2023</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2388,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A533" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="G558" sqref="G558"/>
+      <selection pane="bottomLeft" activeCell="F556" sqref="F556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2553,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.102000000000032</v>
+        <v>61.102000000000032</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2557,7 +2563,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.225000000000023</v>
+        <v>41.225000000000023</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14726,15 +14732,17 @@
       <c r="B553" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C553" s="13"/>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D553" s="38">
         <v>4</v>
       </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G553" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H553" s="38"/>
       <c r="I553" s="9"/>
@@ -14748,13 +14756,15 @@
         <v>45170</v>
       </c>
       <c r="B554" s="20"/>
-      <c r="C554" s="13"/>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D554" s="38"/>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G554" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H554" s="38"/>
       <c r="I554" s="9"/>
@@ -14765,37 +14775,51 @@
       <c r="A555" s="39">
         <v>45200</v>
       </c>
-      <c r="B555" s="20"/>
-      <c r="C555" s="13"/>
-      <c r="D555" s="38"/>
+      <c r="B555" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D555" s="38">
+        <v>4</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G555" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H555" s="38"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20"/>
+      <c r="K555" s="20" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39">
         <v>45231</v>
       </c>
-      <c r="B556" s="20"/>
-      <c r="C556" s="13"/>
+      <c r="B556" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C556" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D556" s="38"/>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G556" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H556" s="38"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20"/>
+      <c r="K556" s="20" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39">
